--- a/config_11.10/task_server.xlsx
+++ b/config_11.10/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="420">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1673,6 +1673,35 @@
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>5,5,5,5,5,-1,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,111,112,113,114,115,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2275,9 +2304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5627,9 +5656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8054,8 +8083,11 @@
       <c r="D94" s="4">
         <v>93</v>
       </c>
-      <c r="F94" s="4">
-        <v>50</v>
+      <c r="F94" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="H94" s="42" t="s">
+        <v>419</v>
       </c>
       <c r="I94" s="42" t="s">
         <v>415</v>
@@ -10944,18 +10976,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116:E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="20.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="30.625" customWidth="1"/>
@@ -13060,6 +13092,108 @@
       </c>
       <c r="F115" s="57"/>
       <c r="G115" s="57"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="48">
+        <v>115</v>
+      </c>
+      <c r="B116" s="57">
+        <v>110</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="48">
+        <v>116</v>
+      </c>
+      <c r="B117" s="57">
+        <v>111</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="48">
+        <v>117</v>
+      </c>
+      <c r="B118" s="57">
+        <v>112</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="48">
+        <v>118</v>
+      </c>
+      <c r="B119" s="57">
+        <v>113</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="48">
+        <v>119</v>
+      </c>
+      <c r="B120" s="57">
+        <v>114</v>
+      </c>
+      <c r="C120" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="48">
+        <v>120</v>
+      </c>
+      <c r="B121" s="57">
+        <v>115</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -46535,16 +46669,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_11.10/task_server.xlsx
+++ b/config_11.10/task_server.xlsx
@@ -5656,9 +5656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8091,6 +8091,9 @@
       </c>
       <c r="I94" s="42" t="s">
         <v>415</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -46669,16 +46672,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
